--- a/Brainstorm.xlsx
+++ b/Brainstorm.xlsx
@@ -5,14 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyron\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Product\bag\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21525" windowHeight="12000"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="概要需求" sheetId="1" r:id="rId1"/>
+    <sheet name="DevOps概要" sheetId="2" r:id="rId2"/>
+    <sheet name="部门开发流程现状" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -23,9 +25,1890 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+  <si>
+    <r>
+      <t>DevOps的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进展和计划，目的是了解整体概况构成目前进展今后打算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>等</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>MDK的开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发是8月开始大规模展开，前期验证开发阶段如何导入平台并且验证和完善。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明的概念</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>详细设计书做成</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>业务规则引擎</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>3 自</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动生成代码及管理</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>4 自</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动发布</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>5 自</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>测试</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通过平台编写测试case及生成测试脚本，所有的case平台都能管理起来。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>1和2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通过平台可以完成常规的设计，
+也可以结合规则引擎来完成业务的实现</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>DevOps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Dev</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>elopment和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Op</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>erations的组合词）是一种重视“软件开发人员（Dev）”和“IT运维技术人员（Ops）”之间沟通合作的文化、运动或惯例。通过自动化“软件交付”和“架构变更”的流程，来使得构建、测试、发布软件能够更加地快捷、频繁和可靠。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>传统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>软</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组织</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>将开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、IT运</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>维</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>质</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>量保障</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>各自分离的部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>种</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>境下如何采用新的开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>方法（例如敏捷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>软</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>），是一个重要的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>课题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。按照从前的工作方式，开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和部署，不需要IT支持或者QA深入的跨部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的支持；而</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在却需要极其</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>紧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>密的多部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门协</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>作。而DevOps考</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>虑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>还</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不止是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>软</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件部署，它是一套</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>针对这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>几个部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>沟通与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>协</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的流程和方法</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/58702398</t>
+  </si>
+  <si>
+    <t>最初大家说到DEVOPS，都是指的‘开发运维一体化’，如下图:</t>
+  </si>
+  <si>
+    <t>现在大家说的 DevOps 已经是扩大到“端到端”的概念了，如下图：</t>
+  </si>
+  <si>
+    <r>
+      <t>devops</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>相关工具</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>devops平台搭建工具</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目管理（PM）：jira。运</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>营</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可以上去提</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，可以看到各个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的完整的工作流，待解决未解决等</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>管理：gitlab。jenkins或者K8S都可以集成gitlab，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>行代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>管理，上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>滚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>等；</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>续</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>集成CI（Continuous Integration）：gitlab ci。开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>提交了新代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>之后，立刻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>行构建、（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。根据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>测试结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>果，我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>们</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可以确定新代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和原有代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>能否正确地集成在一起。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>续</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>交付CD（Continuous Delivery）：gitlab cd。完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>后，可以把代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>部署到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>连</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>接数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">的 Staging </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>境中更多的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。如果代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>没有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，可以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>继续</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>部署到生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>产环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>境中。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>镜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>像</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>仓库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：VMware Harbor，私服nexus。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>容器：Docker。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>编</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>排：K8S。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>服务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>治理：Consul。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>脚本语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>言：Python。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>日志管理：Cat+Sentry，还</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有种常用的是ELK。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>系统监控：Prometheus。</t>
+  </si>
+  <si>
+    <t>负载均衡：Nginx。</t>
+  </si>
+  <si>
+    <t>网关：Kong，zuul。</t>
+  </si>
+  <si>
+    <t>链路追踪：Zipkin。</t>
+  </si>
+  <si>
+    <t>产品和UI图：蓝湖。</t>
+  </si>
+  <si>
+    <t>公司内部文档：Confluence。</t>
+  </si>
+  <si>
+    <t>报警：推送到工作群。</t>
+  </si>
+  <si>
+    <r>
+      <t>很多公司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上DevOps而上，管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>层</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>根本不理解，它不是工具，而是流程，机制，方法和文化的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>合体；工作模式，方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>还</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是原始的，想通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上DevOps来解决，痴人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>说</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>梦！</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -38,6 +1921,50 @@
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF121212"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -64,8 +1991,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -83,6 +2025,1323 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1038226" y="1314451"/>
+          <a:ext cx="1752600" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>詳細設計書作成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>IDE</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="角丸四角形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1038226" y="3438526"/>
+          <a:ext cx="1752600" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ビジネスルール</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>エンジン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="角丸四角形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4305301" y="1314451"/>
+          <a:ext cx="1752600" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ソースコード</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>作成＆管理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="角丸四角形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7248526" y="1304926"/>
+          <a:ext cx="1752600" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>自動リリース</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="角丸四角形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10277476" y="1304926"/>
+          <a:ext cx="1752600" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>自動化テスト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="角丸四角形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5391150" y="2990851"/>
+          <a:ext cx="3143249" cy="419099"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>HYRON</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DevOps</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Platform</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1914526" y="1866901"/>
+          <a:ext cx="0" cy="1571625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2790826" y="1590676"/>
+          <a:ext cx="1514475" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6057901" y="1581151"/>
+          <a:ext cx="1190625" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9001126" y="1581151"/>
+          <a:ext cx="1276350" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1" descr="https://pica.zhimg.com/80/v2-845a215cf750b4d4dc36a1959830a907_720w.jpg?source=1940ef5c"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="1733550"/>
+          <a:ext cx="6858000" cy="2981325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2" descr="https://pic1.zhimg.com/80/v2-1a6b2102b1b400308afe5b625c3c0cbc_720w.jpg?source=1940ef5c"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="5543550"/>
+          <a:ext cx="6858000" cy="2343150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>46151</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3" descr="preview"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="683559" y="8516472"/>
+          <a:ext cx="7565298" cy="2835088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504265</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4146176" y="1860177"/>
+          <a:ext cx="2510118" cy="683559"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>日本側</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>上海側外部設計作成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>179295</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="角丸四角形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1086971" y="1848971"/>
+          <a:ext cx="2510118" cy="683559"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>日本側基本設計作成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>672352</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>448234</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="角丸四角形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7507940" y="1860177"/>
+          <a:ext cx="2510118" cy="683559"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>上海側</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>内部</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>設計作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>上海側</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>詳細設計作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="角丸四角形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10611970" y="1815353"/>
+          <a:ext cx="2510118" cy="683559"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>上海側</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>テスト設計書作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>392205</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>168087</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="角丸四角形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10645587" y="3541059"/>
+          <a:ext cx="2510118" cy="683559"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>上海側</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>開発</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>627529</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>403411</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="角丸四角形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7463117" y="3585882"/>
+          <a:ext cx="2510118" cy="683559"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>上海側</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>単体テスト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>515471</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="角丸四角形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4157382" y="3585882"/>
+          <a:ext cx="2510118" cy="683559"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>日本</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>側</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>結合テスト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -348,15 +3607,243 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:H36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E31:H32"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:B92"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="4" spans="2:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="12" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B34" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B73" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B74" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B75" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B76" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B77" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B78" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B79" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B80" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B81" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B82" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B83" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B84" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B85" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B86" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B87" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B88" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B89" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B92" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Brainstorm.xlsx
+++ b/Brainstorm.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Product\bag\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jinni\Desktop\bag\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4498E0AE-842D-4A3A-B0A5-27E9A193CEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21525" windowHeight="12000"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="概要需求" sheetId="1" r:id="rId1"/>
+    <sheet name="前期讨论" sheetId="1" r:id="rId1"/>
     <sheet name="DevOps概要" sheetId="2" r:id="rId2"/>
     <sheet name="部门开发流程现状" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <r>
       <t>DevOps的</t>
@@ -35,7 +36,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -46,7 +47,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -57,220 +58,57 @@
   </si>
   <si>
     <r>
-      <t>MDK的开</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>发是8月开始大规模展开，前期验证开发阶段如何导入平台并且验证和完善。</t>
-    </r>
-    <phoneticPr fontId="1"/>
+      <t>DevOps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Dev</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>elopment和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Op</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>erations的组合词）是一种重视“软件开发人员（Dev）”和“IT运维技术人员（Ops）”之间沟通合作的文化、运动或惯例。通过自动化“软件交付”和“架构变更”的流程，来使得构建、测试、发布软件能够更加地快捷、频繁和可靠。</t>
+    </r>
   </si>
   <si>
-    <t>明的概念</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>详细设计书做成</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>业务规则引擎</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>3 自</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>动生成代码及管理</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>4 自</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>动发布</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>5 自</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>动</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>化</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>测试</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>通过平台编写测试case及生成测试脚本，所有的case平台都能管理起来。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>1和2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>通过平台可以完成常规的设计，
-也可以结合规则引擎来完成业务的实现</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>DevOps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Dev</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>elopment和</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Op</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>erations的组合词）是一种重视“软件开发人员（Dev）”和“IT运维技术人员（Ops）”之间沟通合作的文化、运动或惯例。通过自动化“软件交付”和“架构变更”的流程，来使得构建、测试、发布软件能够更加地快捷、频繁和可靠。</t>
-    </r>
-  </si>
-  <si>
     <r>
       <t>传统</t>
     </r>
@@ -278,7 +116,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -289,7 +127,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -300,7 +138,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -311,7 +149,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -322,7 +160,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -333,7 +171,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -344,7 +182,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -355,7 +193,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -366,7 +204,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -377,7 +215,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -388,7 +226,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -399,7 +237,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -410,7 +248,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -421,7 +259,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -432,7 +270,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -443,7 +281,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -454,7 +292,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -465,7 +303,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -476,7 +314,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -487,7 +325,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -498,7 +336,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -509,7 +347,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -520,7 +358,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -531,7 +369,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -542,7 +380,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -553,7 +391,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -564,7 +402,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -575,7 +413,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -586,7 +424,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -597,7 +435,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -608,7 +446,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -619,7 +457,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -630,7 +468,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -641,7 +479,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -652,7 +490,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -663,7 +501,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -674,7 +512,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -685,7 +523,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -696,7 +534,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -707,7 +545,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -718,7 +556,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -729,7 +567,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -740,7 +578,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -751,7 +589,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -762,7 +600,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -773,7 +611,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -784,7 +622,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -795,7 +633,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -806,7 +644,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -817,7 +655,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -828,7 +666,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -854,7 +692,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -865,7 +703,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -883,7 +721,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -894,7 +732,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -905,7 +743,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -916,7 +754,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -927,7 +765,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -938,7 +776,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -949,7 +787,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -960,7 +798,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -977,7 +815,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -988,7 +826,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -999,7 +837,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1010,7 +848,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1021,7 +859,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1032,7 +870,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1043,7 +881,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1054,7 +892,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1065,7 +903,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1076,7 +914,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1093,7 +931,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1104,7 +942,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1115,7 +953,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1126,7 +964,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1137,7 +975,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1148,7 +986,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1159,7 +997,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1170,7 +1008,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1181,7 +1019,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1192,7 +1030,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1203,7 +1041,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1214,7 +1052,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1225,7 +1063,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1236,7 +1074,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1247,7 +1085,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1258,7 +1096,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1269,7 +1107,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1280,7 +1118,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1291,7 +1129,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1302,7 +1140,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1313,7 +1151,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1324,7 +1162,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1341,7 +1179,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1352,7 +1190,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1363,7 +1201,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1374,7 +1212,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1385,7 +1223,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1396,7 +1234,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1407,7 +1245,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1418,7 +1256,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1429,7 +1267,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1440,7 +1278,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1451,7 +1289,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1462,7 +1300,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1473,7 +1311,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1484,7 +1322,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1495,7 +1333,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1506,7 +1344,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1517,7 +1355,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1528,7 +1366,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1539,7 +1377,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1550,7 +1388,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1561,7 +1399,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1572,7 +1410,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1583,7 +1421,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1594,7 +1432,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1605,7 +1443,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1616,7 +1454,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1630,7 +1468,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1641,7 +1479,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1652,7 +1490,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1663,7 +1501,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1684,7 +1522,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1701,7 +1539,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1718,7 +1556,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1735,7 +1573,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1773,7 +1611,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1784,7 +1622,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1795,7 +1633,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1806,7 +1644,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1817,7 +1655,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1828,7 +1666,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1839,7 +1677,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1850,7 +1688,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1861,7 +1699,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1872,7 +1710,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1883,7 +1721,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1894,32 +1732,36 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>梦！</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要望</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1927,7 +1769,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1935,7 +1777,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1963,8 +1805,16 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1991,18 +1841,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -2010,9 +1854,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2029,587 +1882,940 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>352426</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>44822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>51924</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>1678</xdr:rowOff>
     </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D2128FB-E7F9-4058-A9B8-0C0E984496EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="560294" y="1893793"/>
+          <a:ext cx="10428571" cy="4495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>649941</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6221768" cy="1009251"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形 1"/>
-        <xdr:cNvSpPr/>
+        <xdr:cNvPr id="10" name="文本框 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73EAC6ED-E63E-461A-97CD-4EA9A506AF81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1038226" y="1314451"/>
-          <a:ext cx="1752600" cy="552450"/>
+          <a:off x="649941" y="694764"/>
+          <a:ext cx="6221768" cy="1009251"/>
         </a:xfrm>
-        <a:prstGeom prst="roundRect">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>詳細設計書作成</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>IDE</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>352426</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="角丸四角形 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1038226" y="3438526"/>
-          <a:ext cx="1752600" cy="552450"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ビジネスルール</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>エンジン</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>571501</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="角丸四角形 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4305301" y="1314451"/>
-          <a:ext cx="1752600" cy="552450"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ソースコード</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>作成＆管理</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>390526</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="角丸四角形 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7248526" y="1304926"/>
-          <a:ext cx="1752600" cy="552450"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>自動リリース</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>676276</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>371476</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="角丸四角形 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10277476" y="1304926"/>
-          <a:ext cx="1752600" cy="552450"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>自動化テスト</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="角丸四角形 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5391150" y="2990851"/>
-          <a:ext cx="3143249" cy="419099"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>HYRON</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>DevOps</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Platform</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="3" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1914526" y="1866901"/>
-          <a:ext cx="0" cy="1571625"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>上周五晚上和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>NRI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>小久保统括部长交流时，谈到了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>MP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>国际化推进的话题</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>--MP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>既（小保险软件包），</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>NRI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>自己投资的产品，核心是 韩国的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>INNORULE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>既周桑去年一起解析的规则引擎</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>----</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>小久保希望我们明年能够替代日本侧的保守工作（一部分），</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>同时可能的话，逐步把核心引擎换成我们自己的引擎（可以减少专利费用），</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>然后在中国或者东南亚推广，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>NRI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>会一起推进</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>----</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>582705</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="4" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
+    <xdr:ext cx="7928837" cy="1181477"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="文本框 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EEF862E-A4FA-4458-A500-7ACCB0288DD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2790826" y="1590676"/>
-          <a:ext cx="1514475" cy="0"/>
+          <a:off x="582705" y="7205382"/>
+          <a:ext cx="7928837" cy="1181477"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
+        <a:noFill/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>倪</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ppt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>已经粗略看过一遍，我个人的感觉是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ppt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>里描述的内容在技术上都还是可控范围。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>当然，小明这里我希望的是能在架构上有自己的理念</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>~~)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>我提点我的不成熟看法：目前</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ppt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>里描述的设计和开发过程中，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>个人感觉对我们部门最大的挑战应该是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>CI/CD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，起码我的感受是从目前小荣这个项目体制里看起来，各位</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>leader</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>可能没法适应。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>将来真的展开，我们一定要从中层</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>leader</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>开始展开培训。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>571501</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>616324</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>390526</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="3"/>
-          <a:endCxn id="5" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
+    <xdr:ext cx="5688480" cy="2281778"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="文本框 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ECCE4D4-6A1B-4DBC-80C4-8E43B8014BF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6057901" y="1581151"/>
-          <a:ext cx="1190625" cy="9525"/>
+        <a:xfrm>
+          <a:off x="616324" y="8639735"/>
+          <a:ext cx="5688480" cy="2281778"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
+        <a:noFill/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>明</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>那文档还没细看！ 对于公司的开发流程（尼桑说的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ci/cd</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>我的想法是 我们也能搞一套自己的开发平台（从基本设计到开发流水线自动化平台化）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、详细设计书的做成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ide</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>（尼桑目前研究中的）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、业务规则设计（规则引擎）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、自动生成代码及管理（代码管理）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、自动发布</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、自动化测试</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>（通过平台编写测试</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>case </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>及生成测试脚本、</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>所有的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>case</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>平台都管理起来、</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>目前我们公司很多项目都是以往的测试</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>case</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>都没有历史记录 要重跑的时候效率非常低下）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的话通过平台可以完成常规的设计也可以结合规则引擎来完成业务的实现 </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>676276</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直線矢印コネクタ 17"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="3"/>
-          <a:endCxn id="6" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
+    <xdr:ext cx="3141181" cy="1364861"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="文本框 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7AC1E0B-2449-4534-BD83-79CCF4CB1738}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9001126" y="1581151"/>
-          <a:ext cx="1276350" cy="0"/>
+          <a:off x="582706" y="11217089"/>
+          <a:ext cx="3141181" cy="1364861"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
+        <a:noFill/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>倪</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>是个载体 不是很重要 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>3 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>是我感觉的核心 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>希望</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>直接能通过某种中介</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>(xml</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>json)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>来交互</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>4 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>是一个麻烦的过程 不止技术还有团队开发意识</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>5 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>这个其实挺难。。。抱歉 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>我对自动测试也不是很熟悉</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>(QT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>啥的也没用过</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>549088</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>56031</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5686172" cy="2098395"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="文本框 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C320C049-C6DA-4487-BEA7-1F4A17AB2528}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="549088" y="12998825"/>
+          <a:ext cx="5686172" cy="2098395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>姚</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>这次的项目是本社为主的开发，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>有关</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>CI/CT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，野村也是提出要望，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>某些工具野村会提供但是周桑说的我们自己今后准备的开发平台</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>（和上次我们去众安科技拜访时他们介绍的类似）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>是非常有划时代意义的，明年一起努力规划和准备起来，不仅仅是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>MDK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>项目，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>其他新规开发项目也逐步展开周桑觉得如果你们二位再加上杭州技术人员一起投入的话，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>大概多少时间能搞出来？</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>MDK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的开发要明年</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>月以后大规模展开，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>前期验证开发阶段如何能导入这个平台并且验证和完善，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>对我们的提案（本社为主，我这边辅助了）将会有很大的加分</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>100854</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="文本框 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E882D3F-6325-4999-A164-DFCBECB120D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="6824383"/>
+          <a:ext cx="748923" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>微信讨论</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2630,7 +2836,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1" descr="https://pica.zhimg.com/80/v2-845a215cf750b4d4dc36a1959830a907_720w.jpg?source=1940ef5c"/>
+        <xdr:cNvPr id="2" name="図 1" descr="https://pica.zhimg.com/80/v2-845a215cf750b4d4dc36a1959830a907_720w.jpg?source=1940ef5c">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2685,7 +2897,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2" descr="https://pic1.zhimg.com/80/v2-1a6b2102b1b400308afe5b625c3c0cbc_720w.jpg?source=1940ef5c"/>
+        <xdr:cNvPr id="3" name="図 2" descr="https://pic1.zhimg.com/80/v2-1a6b2102b1b400308afe5b625c3c0cbc_720w.jpg?source=1940ef5c">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2740,7 +2958,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3" descr="preview"/>
+        <xdr:cNvPr id="4" name="図 3" descr="preview">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2800,7 +3024,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形 1"/>
+        <xdr:cNvPr id="2" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2865,7 +3095,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="角丸四角形 2"/>
+        <xdr:cNvPr id="3" name="角丸四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2922,7 +3158,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="角丸四角形 3"/>
+        <xdr:cNvPr id="4" name="角丸四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3032,7 +3274,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="角丸四角形 4"/>
+        <xdr:cNvPr id="5" name="角丸四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3110,7 +3358,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="角丸四角形 5"/>
+        <xdr:cNvPr id="6" name="角丸四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3188,7 +3442,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="角丸四角形 6"/>
+        <xdr:cNvPr id="7" name="角丸四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3266,7 +3526,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="角丸四角形 7"/>
+        <xdr:cNvPr id="8" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3606,73 +3872,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
+    <row r="42" spans="2:8">
+      <c r="B42" s="6"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="43" spans="2:8">
+      <c r="B43" s="1"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+    <row r="44" spans="2:8">
+      <c r="E44" s="4"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
+    <row r="45" spans="2:8">
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E31:H32"/>
+    <mergeCell ref="E44:H45"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3682,147 +3921,147 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:B92"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="4" spans="2:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="2:2" ht="15">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="12" spans="2:2" ht="16.5">
+      <c r="B12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="16.5">
+      <c r="B34" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+    <row r="76" spans="2:2">
+      <c r="B76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B10" s="1"/>
-    </row>
-    <row r="12" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="5" t="s">
+    <row r="78" spans="2:2">
+      <c r="B78" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B34" s="5" t="s">
+    <row r="79" spans="2:2">
+      <c r="B79" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B53" t="s">
+    <row r="80" spans="2:2">
+      <c r="B80" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B72" t="s">
+    <row r="81" spans="2:2">
+      <c r="B81" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B73" s="1" t="s">
+    <row r="82" spans="2:2">
+      <c r="B82" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B74" t="s">
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B75" t="s">
+    <row r="84" spans="2:2">
+      <c r="B84" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B76" t="s">
+    <row r="85" spans="2:2">
+      <c r="B85" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B77" s="1" t="s">
+    <row r="86" spans="2:2">
+      <c r="B86" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B78" s="1" t="s">
+    <row r="87" spans="2:2">
+      <c r="B87" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B79" s="1" t="s">
+    <row r="88" spans="2:2">
+      <c r="B88" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B80" s="1" t="s">
+    <row r="89" spans="2:2">
+      <c r="B89" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B81" s="1" t="s">
+    <row r="92" spans="2:2">
+      <c r="B92" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B82" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B83" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B84" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B85" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B86" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B87" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B88" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B89" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B92" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -3833,14 +4072,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
